--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F2-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F2-Gp1ba.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H2">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I2">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J2">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.942633666666667</v>
+        <v>0.8229573333333334</v>
       </c>
       <c r="N2">
-        <v>8.827901000000001</v>
+        <v>2.468872</v>
       </c>
       <c r="O2">
-        <v>0.4532993947193931</v>
+        <v>0.2440777672676426</v>
       </c>
       <c r="P2">
-        <v>0.4532993947193931</v>
+        <v>0.2440777672676426</v>
       </c>
       <c r="Q2">
-        <v>1.419730503400889</v>
+        <v>0.3164652250231112</v>
       </c>
       <c r="R2">
-        <v>12.777574530608</v>
+        <v>2.848187025208</v>
       </c>
       <c r="S2">
-        <v>0.09518638270716495</v>
+        <v>0.04844578052126639</v>
       </c>
       <c r="T2">
-        <v>0.09518638270716491</v>
+        <v>0.04844578052126638</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H3">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I3">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J3">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>4.395834</v>
       </c>
       <c r="O3">
-        <v>0.2257194424231681</v>
+        <v>0.4345811965947162</v>
       </c>
       <c r="P3">
-        <v>0.2257194424231681</v>
+        <v>0.4345811965947162</v>
       </c>
       <c r="Q3">
-        <v>0.706951699808</v>
+        <v>0.563467282214</v>
       </c>
       <c r="R3">
-        <v>6.362565298272</v>
+        <v>5.071205539926</v>
       </c>
       <c r="S3">
-        <v>0.04739785113597984</v>
+        <v>0.08625785750412353</v>
       </c>
       <c r="T3">
-        <v>0.04739785113597984</v>
+        <v>0.08625785750412353</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H4">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I4">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J4">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.083678</v>
+        <v>1.083466</v>
       </c>
       <c r="N4">
-        <v>6.251034</v>
+        <v>3.250398</v>
       </c>
       <c r="O4">
-        <v>0.3209811628574387</v>
+        <v>0.3213410361376413</v>
       </c>
       <c r="P4">
-        <v>0.3209811628574387</v>
+        <v>0.3213410361376413</v>
       </c>
       <c r="Q4">
-        <v>1.005310735541333</v>
+        <v>0.4166428775913333</v>
       </c>
       <c r="R4">
-        <v>9.047796619871999</v>
+        <v>3.749785898322</v>
       </c>
       <c r="S4">
-        <v>0.06740144850282077</v>
+        <v>0.06378138198933082</v>
       </c>
       <c r="T4">
-        <v>0.06740144850282075</v>
+        <v>0.06378138198933082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.332484</v>
       </c>
       <c r="I5">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J5">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.942633666666667</v>
+        <v>0.8229573333333334</v>
       </c>
       <c r="N5">
-        <v>8.827901000000001</v>
+        <v>2.468872</v>
       </c>
       <c r="O5">
-        <v>0.4532993947193931</v>
+        <v>0.2440777672676426</v>
       </c>
       <c r="P5">
-        <v>0.4532993947193931</v>
+        <v>0.2440777672676426</v>
       </c>
       <c r="Q5">
-        <v>3.268759870676</v>
+        <v>0.9141640486720001</v>
       </c>
       <c r="R5">
-        <v>29.418838836084</v>
+        <v>8.227476438048001</v>
       </c>
       <c r="S5">
-        <v>0.2191552743866994</v>
+        <v>0.1399439412629357</v>
       </c>
       <c r="T5">
-        <v>0.2191552743866994</v>
+        <v>0.1399439412629357</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.332484</v>
       </c>
       <c r="I6">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J6">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>4.395834</v>
       </c>
       <c r="O6">
-        <v>0.2257194424231681</v>
+        <v>0.4345811965947162</v>
       </c>
       <c r="P6">
-        <v>0.2257194424231681</v>
+        <v>0.4345811965947162</v>
       </c>
       <c r="Q6">
         <v>1.627671830184</v>
@@ -818,10 +818,10 @@
         <v>14.649046471656</v>
       </c>
       <c r="S6">
-        <v>0.109127889679368</v>
+        <v>0.2491706071021971</v>
       </c>
       <c r="T6">
-        <v>0.109127889679368</v>
+        <v>0.2491706071021971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.332484</v>
       </c>
       <c r="I7">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J7">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.083678</v>
+        <v>1.083466</v>
       </c>
       <c r="N7">
-        <v>6.251034</v>
+        <v>3.250398</v>
       </c>
       <c r="O7">
-        <v>0.3209811628574387</v>
+        <v>0.3213410361376413</v>
       </c>
       <c r="P7">
-        <v>0.3209811628574387</v>
+        <v>0.3213410361376413</v>
       </c>
       <c r="Q7">
-        <v>2.314607865384</v>
+        <v>1.203544369848</v>
       </c>
       <c r="R7">
-        <v>20.831470788456</v>
+        <v>10.831899328632</v>
       </c>
       <c r="S7">
-        <v>0.1551837828120849</v>
+        <v>0.1842434548219444</v>
       </c>
       <c r="T7">
-        <v>0.1551837828120849</v>
+        <v>0.1842434548219444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7043323333333333</v>
+        <v>0.442033</v>
       </c>
       <c r="H8">
-        <v>2.112997</v>
+        <v>1.326099</v>
       </c>
       <c r="I8">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J8">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.942633666666667</v>
+        <v>0.8229573333333334</v>
       </c>
       <c r="N8">
-        <v>8.827901000000001</v>
+        <v>2.468872</v>
       </c>
       <c r="O8">
-        <v>0.4532993947193931</v>
+        <v>0.2440777672676426</v>
       </c>
       <c r="P8">
-        <v>0.4532993947193931</v>
+        <v>0.2440777672676426</v>
       </c>
       <c r="Q8">
-        <v>2.072592036588556</v>
+        <v>0.3637742989253334</v>
       </c>
       <c r="R8">
-        <v>18.653328329297</v>
+        <v>3.273968690328</v>
       </c>
       <c r="S8">
-        <v>0.1389577376255288</v>
+        <v>0.05568804548344051</v>
       </c>
       <c r="T8">
-        <v>0.1389577376255288</v>
+        <v>0.0556880454834405</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7043323333333333</v>
+        <v>0.442033</v>
       </c>
       <c r="H9">
-        <v>2.112997</v>
+        <v>1.326099</v>
       </c>
       <c r="I9">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J9">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>4.395834</v>
       </c>
       <c r="O9">
-        <v>0.2257194424231681</v>
+        <v>0.4345811965947162</v>
       </c>
       <c r="P9">
-        <v>0.2257194424231681</v>
+        <v>0.4345811965947162</v>
       </c>
       <c r="Q9">
-        <v>1.032042672722</v>
+        <v>0.6477012301739998</v>
       </c>
       <c r="R9">
-        <v>9.288384054498</v>
+        <v>5.829311071565999</v>
       </c>
       <c r="S9">
-        <v>0.06919370160782032</v>
+        <v>0.09915273198839557</v>
       </c>
       <c r="T9">
-        <v>0.06919370160782032</v>
+        <v>0.09915273198839557</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7043323333333333</v>
+        <v>0.442033</v>
       </c>
       <c r="H10">
-        <v>2.112997</v>
+        <v>1.326099</v>
       </c>
       <c r="I10">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J10">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.083678</v>
+        <v>1.083466</v>
       </c>
       <c r="N10">
-        <v>6.251034</v>
+        <v>3.250398</v>
       </c>
       <c r="O10">
-        <v>0.3209811628574387</v>
+        <v>0.3213410361376413</v>
       </c>
       <c r="P10">
-        <v>0.3209811628574387</v>
+        <v>0.3213410361376413</v>
       </c>
       <c r="Q10">
-        <v>1.467601787655333</v>
+        <v>0.4789277263779999</v>
       </c>
       <c r="R10">
-        <v>13.208416088898</v>
+        <v>4.310349537401999</v>
       </c>
       <c r="S10">
-        <v>0.09839593154253311</v>
+        <v>0.07331619932636604</v>
       </c>
       <c r="T10">
-        <v>0.09839593154253311</v>
+        <v>0.07331619932636606</v>
       </c>
     </row>
   </sheetData>
